--- a/pub/Management/WBSbyArea/1.1_Software_WBS.xlsx
+++ b/pub/Management/WBSbyArea/1.1_Software_WBS.xlsx
@@ -11,11 +11,11 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="marco mambelli - Personal View" guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Suchandra Thapa - Personal View" guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" mergeInterval="0" personalView="1" xWindow="1709" yWindow="93" windowWidth="1240" windowHeight="783" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Alain Roy - Personal View" guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="68" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Tanya Levshina - Personal View" guid="{15AD2D73-7234-489F-A4FF-1CB0147A86F3}" mergeInterval="0" personalView="1" xWindow="9" yWindow="29" windowWidth="1276" windowHeight="771" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="Chander Sehgal - Personal View" guid="{B18D2963-796C-440A-BD0A-18563C44C531}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1020" windowHeight="520" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Tanya Levshina - Personal View" guid="{15AD2D73-7234-489F-A4FF-1CB0147A86F3}" mergeInterval="0" personalView="1" xWindow="9" yWindow="29" windowWidth="1276" windowHeight="771" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Alain Roy - Personal View" guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="68" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Suchandra Thapa - Personal View" guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}" mergeInterval="0" personalView="1" xWindow="1709" yWindow="93" windowWidth="1240" windowHeight="783" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="marco mambelli - Personal View" guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" mergeInterval="0" personalView="1" xWindow="-1" yWindow="71" windowWidth="1240" windowHeight="706" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="162">
   <si>
     <t>Roy</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -458,14 +458,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Software Acceptance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>?</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -479,10 +471,6 @@
   </si>
   <si>
     <t>Roy, Levshina</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Needs elaboration by Igor</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -755,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -802,18 +790,13 @@
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -825,7 +808,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{0467EB82-A3AD-4314-81CE-6218F37E4044}" diskRevisions="1" revisionId="1111" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{E279E2FE-9DBE-4691-8D22-C891C9050461}" diskRevisions="1" revisionId="1113" version="3">
   <header guid="{C48660FA-862D-DD48-B384-58C955607442}" dateTime="2010-07-15T16:04:55" maxSheetId="2" userName="Suchandra Thapa" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1247,40 +1230,240 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{E279E2FE-9DBE-4691-8D22-C891C9050461}" dateTime="2010-08-12T09:11:26" maxSheetId="2" userName="Chander Sehgal" r:id="rId24" minRId="1112" maxRId="1113">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1108" sId="1">
-    <nc r="C56" t="inlineStr">
-      <is>
-        <t>?</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1109" sId="1">
-    <nc r="D56" t="inlineStr">
-      <is>
-        <t>?</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1110" sId="1">
-    <nc r="D57" t="inlineStr">
-      <is>
-        <t>?</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1111" sId="1">
-    <nc r="C57" t="inlineStr">
-      <is>
-        <t>?</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{B18D2963-796C-440A-BD0A-18563C44C531}" action="add"/>
+  <rrc rId="1112" sId="1" ref="A71:XFD71" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A71:XFD71" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A71" t="inlineStr">
+        <is>
+          <t>1.1.8</t>
+          <phoneticPr fontId="8" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="47"/>
+          </patternFill>
+        </fill>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B71" t="inlineStr">
+        <is>
+          <t>Software Acceptance</t>
+          <phoneticPr fontId="8" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="47"/>
+          </patternFill>
+        </fill>
+        <alignment horizontal="left" vertical="top" wrapText="1" indent="1" relativeIndent="0" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
+      <nc r="C71">
+        <v>38990</v>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="47"/>
+          </patternFill>
+        </fill>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1" numFmtId="20">
+      <nc r="D71">
+        <v>39354</v>
+      </nc>
+      <ndxf>
+        <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="47"/>
+          </patternFill>
+        </fill>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="E71" t="inlineStr">
+        <is>
+          <t>Sfiligoi</t>
+          <phoneticPr fontId="8" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="12"/>
+          <color indexed="8"/>
+          <name val="Calibri"/>
+          <scheme val="none"/>
+        </font>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor indexed="47"/>
+          </patternFill>
+        </fill>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="F71" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G71" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H71" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I71" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J71" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="1113" sId="1" ref="A71:XFD71" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A71:XFD71" start="0" length="0"/>
+    <rfmt sheetId="1" sqref="A71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B71" t="inlineStr">
+        <is>
+          <t>Needs elaboration by Igor</t>
+          <phoneticPr fontId="8" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="C71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="G71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="H71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="I71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="J71" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="10"/>
+          <color auto="1"/>
+          <name val="Verdana"/>
+          <scheme val="none"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rrc>
 </revisions>
 </file>
 
@@ -7914,6 +8097,623 @@
 </file>
 
 <file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1108" sId="1">
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1109" sId="1">
+    <nc r="D56" t="inlineStr">
+      <is>
+        <t>?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1110" sId="1">
+    <nc r="D57" t="inlineStr">
+      <is>
+        <t>?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1111" sId="1">
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t>?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{B18D2963-796C-440A-BD0A-18563C44C531}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <rcc rId="2" sId="1">
+    <oc r="E33" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E33" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="1">
+    <oc r="E28" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <oc r="E20" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E20" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <oc r="E21" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <oc r="E22" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <oc r="E23" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E23" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <oc r="E24" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="9" sId="1" eol="1" ref="A36:XFD36" action="insertRow"/>
+  <rcc rId="10" sId="1">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Create, maintain and use a virtual Tier 3 cluster to test different configurations  </t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B36" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="11" sId="1" ref="A36:XFD36" action="insertRow"/>
+  <rfmt sheetId="1" xfDxf="1" sqref="B36" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="12" sId="1">
+    <oc r="B35" t="inlineStr">
+      <is>
+        <t>Work with Production area to provide support for LHC Tier 3 sites.</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>Work with Production area to provide support for LHC Tier 3 sites.</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="B36" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="13" sId="1" eol="1" ref="A38:XFD38" action="insertRow"/>
+  <rcc rId="14" sId="1">
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>Test software solution targeting simple deployment for small sites</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B38" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="15" sId="1">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>Work with VO area to provide support forfor sites of other VOs, especially smaller sites with limited IT personnel</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="1">
+    <nc r="A36" t="inlineStr">
+      <is>
+        <t>1.3.6.4</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1" odxf="1" dxf="1">
+    <nc r="A37" t="inlineStr">
+      <is>
+        <t>1.3.6.5</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="18" sId="1" odxf="1" dxf="1">
+    <nc r="A38" t="inlineStr">
+      <is>
+        <t>1.3.6.6</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <oc r="E34" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="1">
+    <oc r="E35" t="inlineStr">
+      <is>
+        <t>RG</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1">
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="1" odxf="1" dxf="1">
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="23" sId="1" odxf="1" dxf="1">
+    <nc r="E38" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="F35" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rfmt sheetId="1" sqref="F36" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rfmt sheetId="1" sqref="F37" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="F38" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="24" sId="1">
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="G36" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J36" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="25" sId="1">
+    <nc r="F37" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="G37" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H37" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I37" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J37" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="26" sId="1">
+    <nc r="F38" t="inlineStr">
+      <is>
+        <t>MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="G38" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H38" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I38" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="J38" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="52"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="27" sId="1">
+    <nc r="G36" t="inlineStr">
+      <is>
+        <t>Number of consultation hours given to small sites</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1">
+    <nc r="G37" t="inlineStr">
+      <is>
+        <t>Running cluster, possible options</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="1">
+    <nc r="G38" t="inlineStr">
+      <is>
+        <t># of different configurations and tests</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="1">
+    <oc r="F26" t="inlineStr">
+      <is>
+        <t>ST, IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F26" t="inlineStr">
+      <is>
+        <t>ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="1">
+    <oc r="F27" t="inlineStr">
+      <is>
+        <t>ST, IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F27" t="inlineStr">
+      <is>
+        <t>ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="1">
+    <oc r="F29" t="inlineStr">
+      <is>
+        <t>RE, KJ, ST, IS</t>
+      </is>
+    </oc>
+    <nc r="F29" t="inlineStr">
+      <is>
+        <t>RE, KJ, ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="1">
+    <oc r="F28" t="inlineStr">
+      <is>
+        <t>RE, KJ, ST, IS</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>RE, KJ, ST, IS, MM</t>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog132.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <rcc rId="704" sId="1">
     <oc r="E3" t="inlineStr">
@@ -8567,589 +9367,6 @@
   </rfmt>
   <rcv guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" action="delete"/>
   <rcv guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <rcc rId="2" sId="1">
-    <oc r="E33" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E33" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="1">
-    <oc r="E28" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E28" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1">
-    <oc r="E20" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E20" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="5" sId="1">
-    <oc r="E21" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E21" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="1">
-    <oc r="E22" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E22" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="1">
-    <oc r="E23" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E23" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="1">
-    <oc r="E24" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E24" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="9" sId="1" eol="1" ref="A36:XFD36" action="insertRow"/>
-  <rcc rId="10" sId="1">
-    <nc r="B36" t="inlineStr">
-      <is>
-        <t xml:space="preserve">Create, maintain and use a virtual Tier 3 cluster to test different configurations  </t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B36" start="0" length="0">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="11" sId="1" ref="A36:XFD36" action="insertRow"/>
-  <rfmt sheetId="1" xfDxf="1" sqref="B36" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="12" sId="1">
-    <oc r="B35" t="inlineStr">
-      <is>
-        <t>Work with Production area to provide support for LHC Tier 3 sites.</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B35" t="inlineStr">
-      <is>
-        <t>Work with Production area to provide support for LHC Tier 3 sites.</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" xfDxf="1" sqref="B36" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="13" sId="1" eol="1" ref="A38:XFD38" action="insertRow"/>
-  <rcc rId="14" sId="1">
-    <nc r="B38" t="inlineStr">
-      <is>
-        <t>Test software solution targeting simple deployment for small sites</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B38" start="0" length="0">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="15" sId="1">
-    <nc r="B36" t="inlineStr">
-      <is>
-        <t>Work with VO area to provide support forfor sites of other VOs, especially smaller sites with limited IT personnel</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="1">
-    <nc r="A36" t="inlineStr">
-      <is>
-        <t>1.3.6.4</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="1" odxf="1" dxf="1">
-    <nc r="A37" t="inlineStr">
-      <is>
-        <t>1.3.6.5</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="18" sId="1" odxf="1" dxf="1">
-    <nc r="A38" t="inlineStr">
-      <is>
-        <t>1.3.6.6</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="19" sId="1">
-    <oc r="E34" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E34" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="1">
-    <oc r="E35" t="inlineStr">
-      <is>
-        <t>RG</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="E35" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="1">
-    <nc r="E36" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="1" odxf="1" dxf="1">
-    <nc r="E37" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="23" sId="1" odxf="1" dxf="1">
-    <nc r="E38" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="F35" start="0" length="0">
-    <dxf/>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F36" start="0" length="0">
-    <dxf/>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F37" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="F38" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="24" sId="1">
-    <nc r="F36" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="G36" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="J36" start="0" length="0">
-    <dxf>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="25" sId="1">
-    <nc r="F37" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="G37" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="H37" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I37" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="J37" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="26" sId="1">
-    <nc r="F38" t="inlineStr">
-      <is>
-        <t>MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="G38" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="H38" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I38" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="J38" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="52"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="27" sId="1">
-    <nc r="G36" t="inlineStr">
-      <is>
-        <t>Number of consultation hours given to small sites</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="1">
-    <nc r="G37" t="inlineStr">
-      <is>
-        <t>Running cluster, possible options</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="1">
-    <nc r="G38" t="inlineStr">
-      <is>
-        <t># of different configurations and tests</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="1">
-    <oc r="F26" t="inlineStr">
-      <is>
-        <t>ST, IS</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="F26" t="inlineStr">
-      <is>
-        <t>ST, IS, MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="1">
-    <oc r="F27" t="inlineStr">
-      <is>
-        <t>ST, IS</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="F27" t="inlineStr">
-      <is>
-        <t>ST, IS, MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="1">
-    <oc r="F29" t="inlineStr">
-      <is>
-        <t>RE, KJ, ST, IS</t>
-      </is>
-    </oc>
-    <nc r="F29" t="inlineStr">
-      <is>
-        <t>RE, KJ, ST, IS, MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="33" sId="1">
-    <oc r="F28" t="inlineStr">
-      <is>
-        <t>RE, KJ, ST, IS</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="F28" t="inlineStr">
-      <is>
-        <t>RE, KJ, ST, IS, MM</t>
-        <phoneticPr fontId="2" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}" action="add"/>
 </revisions>
 </file>
 
@@ -14810,10 +15027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12.75"/>
@@ -14877,7 +15094,7 @@
         <v>39354</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -14896,7 +15113,7 @@
         <v>39354</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="17"/>
@@ -14918,7 +15135,7 @@
         <v>39354</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="17"/>
@@ -14940,7 +15157,7 @@
         <v>39354</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="17"/>
@@ -14962,7 +15179,7 @@
         <v>39354</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="17"/>
@@ -14984,7 +15201,7 @@
         <v>39354</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="17"/>
@@ -15006,7 +15223,7 @@
         <v>39354</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="17"/>
@@ -15028,7 +15245,7 @@
         <v>39354</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="17"/>
@@ -15050,7 +15267,7 @@
         <v>39354</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="23"/>
@@ -15197,10 +15414,10 @@
       <c r="B18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <v>38990</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <v>39354</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -15219,10 +15436,10 @@
       <c r="B19" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="32">
         <v>38990</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="32">
         <v>39354</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -15264,7 +15481,7 @@
         <v>39050</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="17"/>
@@ -15286,7 +15503,7 @@
         <v>39080</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="17"/>
@@ -15346,7 +15563,7 @@
         <v>39019</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="17"/>
@@ -15359,7 +15576,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" s="10">
         <v>38990</v>
@@ -15368,7 +15585,7 @@
         <v>39019</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="17"/>
@@ -15390,7 +15607,7 @@
         <v>39019</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="16"/>
@@ -15408,7 +15625,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="16"/>
@@ -15430,7 +15647,7 @@
         <v>39019</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="16"/>
@@ -15446,13 +15663,13 @@
         <v>20</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="16"/>
@@ -15474,7 +15691,7 @@
         <v>39080</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="16"/>
@@ -15496,7 +15713,7 @@
         <v>38747</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="20"/>
@@ -15509,7 +15726,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C33" s="10">
         <v>38717</v>
@@ -15518,7 +15735,7 @@
         <v>38747</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="16"/>
@@ -15540,7 +15757,7 @@
         <v>38747</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="16"/>
@@ -15553,7 +15770,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C35" s="10">
         <v>38717</v>
@@ -15562,7 +15779,7 @@
         <v>38747</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="23"/>
@@ -15584,13 +15801,13 @@
         <v>38747</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="9" t="s">
@@ -15606,7 +15823,7 @@
         <v>38747</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="16"/>
@@ -15616,10 +15833,10 @@
     </row>
     <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C38" s="10">
         <v>38990</v>
@@ -15628,7 +15845,7 @@
         <v>39354</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="20"/>
@@ -15638,7 +15855,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>63</v>
@@ -15650,7 +15867,7 @@
         <v>39354</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="20"/>
@@ -15660,10 +15877,10 @@
     </row>
     <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C40" s="10">
         <v>38990</v>
@@ -15672,7 +15889,7 @@
         <v>39021</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="20"/>
@@ -15682,10 +15899,10 @@
     </row>
     <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>158</v>
+        <v>119</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="C41" s="10">
         <v>38990</v>
@@ -15694,7 +15911,7 @@
         <v>39354</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="20"/>
@@ -15704,7 +15921,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>62</v>
@@ -15716,7 +15933,7 @@
         <v>39354</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="20"/>
@@ -15726,7 +15943,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>65</v>
@@ -15738,7 +15955,7 @@
         <v>39416</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="20"/>
@@ -15748,7 +15965,7 @@
     </row>
     <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>66</v>
@@ -15760,7 +15977,7 @@
         <v>39113</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="20"/>
@@ -15770,10 +15987,10 @@
     </row>
     <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C45" s="10">
         <v>38990</v>
@@ -15782,7 +15999,7 @@
         <v>39051</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="20"/>
@@ -15792,10 +16009,10 @@
     </row>
     <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C46" s="10">
         <v>38990</v>
@@ -15804,7 +16021,7 @@
         <v>39051</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="20"/>
@@ -15814,10 +16031,10 @@
     </row>
     <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C47" s="10">
         <v>38990</v>
@@ -15826,7 +16043,7 @@
         <v>39113</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="20"/>
@@ -15836,10 +16053,10 @@
     </row>
     <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C48" s="10">
         <v>38990</v>
@@ -15848,7 +16065,7 @@
         <v>39082</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="20"/>
@@ -15858,7 +16075,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>46</v>
@@ -15870,7 +16087,7 @@
         <v>39113</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="20"/>
@@ -15880,10 +16097,10 @@
     </row>
     <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C50" s="10">
         <v>38990</v>
@@ -15892,7 +16109,7 @@
         <v>39354</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="20"/>
@@ -15902,10 +16119,10 @@
     </row>
     <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C51" s="10">
         <v>38990</v>
@@ -15914,7 +16131,7 @@
         <v>39354</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="20"/>
@@ -15924,7 +16141,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>47</v>
@@ -15936,7 +16153,7 @@
         <v>39172</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="20"/>
@@ -15946,7 +16163,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B53" s="28" t="s">
         <v>48</v>
@@ -15958,7 +16175,7 @@
         <v>39113</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="20"/>
@@ -15968,7 +16185,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>49</v>
@@ -15980,7 +16197,7 @@
         <v>39172</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="20"/>
@@ -15990,15 +16207,15 @@
     </row>
     <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="20"/>
@@ -16008,19 +16225,19 @@
     </row>
     <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="20"/>
@@ -16030,19 +16247,19 @@
     </row>
     <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="20"/>
@@ -16050,7 +16267,7 @@
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="1:10" s="32" customFormat="1" ht="15.75">
+    <row r="58" spans="1:10" s="31" customFormat="1" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>88</v>
       </c>
@@ -16133,10 +16350,10 @@
         <v>56</v>
       </c>
       <c r="F61" s="12"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="9" t="s">
@@ -16162,10 +16379,10 @@
     </row>
     <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -16178,10 +16395,10 @@
     </row>
     <row r="64" spans="1:10" ht="15.75">
       <c r="A64" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64" s="10">
         <v>38929</v>
@@ -16190,7 +16407,7 @@
         <v>39019</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="16"/>
@@ -16200,7 +16417,7 @@
     </row>
     <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>98</v>
@@ -16212,7 +16429,7 @@
         <v>39080</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="16"/>
@@ -16249,8 +16466,8 @@
       <c r="B67" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="6" t="s">
         <v>102</v>
       </c>
@@ -16267,10 +16484,10 @@
       <c r="B68" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C68" s="34">
         <v>38990</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="34">
         <v>39080</v>
       </c>
       <c r="E68" s="9" t="s">
@@ -16289,10 +16506,10 @@
       <c r="B69" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C69" s="34">
         <v>39082</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="34">
         <v>38898</v>
       </c>
       <c r="E69" s="9" t="s">
@@ -16311,10 +16528,10 @@
       <c r="B70" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C70" s="36">
+      <c r="C70" s="34">
         <v>38908</v>
       </c>
-      <c r="D70" s="36">
+      <c r="D70" s="34">
         <v>38919</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -16326,33 +16543,19 @@
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
     </row>
-    <row r="71" spans="1:10" s="30" customFormat="1" ht="15.75">
-      <c r="A71" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="37">
-        <v>38990</v>
-      </c>
-      <c r="D71" s="37">
-        <v>39354</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
+    <row r="71" spans="1:10">
+      <c r="A71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="18"/>
-      <c r="B72" s="30" t="s">
-        <v>116</v>
-      </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
@@ -16430,6 +16633,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -16441,6 +16645,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -16702,51 +16907,27 @@
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B18D2963-796C-440A-BD0A-18563C44C531}" topLeftCell="A16">
-      <selection activeCell="B35" sqref="B35"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-    </customSheetView>
-    <customSheetView guid="{15AD2D73-7234-489F-A4FF-1CB0147A86F3}">
-      <selection activeCell="D1" sqref="D1"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-    </customSheetView>
-    <customSheetView guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}">
-      <selection activeCell="E28" sqref="E28"/>
+    <customSheetView guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}">
+      <selection activeCell="D36" sqref="D36"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2C587C88-D8B0-7F4F-A409-5B41CC095D2E}">
       <selection activeCell="G9" sqref="G9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{AA2C57CD-5B8C-8947-81AC-A2814A918CDC}">
-      <selection activeCell="D36" sqref="D36"/>
+    <customSheetView guid="{73AB5DD8-7B33-D646-A835-FC6ECA8FC18B}">
+      <selection activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{15AD2D73-7234-489F-A4FF-1CB0147A86F3}">
+      <selection activeCell="D1" sqref="D1"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+    </customSheetView>
+    <customSheetView guid="{B18D2963-796C-440A-BD0A-18563C44C531}" topLeftCell="A16">
+      <selection activeCell="B35" sqref="B35"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
